--- a/500all/speech_level/speeches_CHRG-114hhrg21309.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21309.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400047</t>
   </si>
   <si>
-    <t>Robert A. Brady</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Madam Chairman. Just to say thank you for having this hearing and moving these bills forward.    The Chairman. Any other Member wish to make an opening statement?    Okay. I will now call before the Committee our first agenda item, the Committee Resolution 114 instructing the House Chief Administrative Officer to submit a plan for the transfer of the House Safe Program to be managed by the House Sergeant at Arms Security Office.    Without objection, the first reading of the resolution is dispensed with, the resolution is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -67,18 +64,12 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Madam Chairman.    Thank you to Ranking Member Brady and this entire Committee.    As somebody who used to actually file the vouchers as a member of the congressional staff for one of our colleagues, these updates I think are overdue, and I think they are going to go a long way in ensuring that the House processes more closely resemble documentation standards in the private sector.    So thank you all for your assistance. I would like to especially thank Ms. Lofgren for helping us go through this process just a few short months ago.    I yield back.    The Chairman. I certainly want to thank both Mr. Davis and Ms. Lofgren for all of the work that they did on this. It was many, many hours, and I think the institution will be so much better for it.    I recognize the gentlelady.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Just to add that it is good to see the follow-up from the work that we did on the task force.    And I yield back.    The Chairman. Any other Member?    If not, I move the Committee adopt the Committee Resolution. The question is on the motion to adopt the resolution.    All Members in favor, signify by saying aye.    Opposed, say nay.    In the opinion of the Chair, the ayes have it, the ayes have it. The motion is agreed to. Without objection, the motion to reconsider is laid upon the table.    We now call before the Committee our next agenda item, which is H.R. 5160, a bill to amend Title 40, United States Code, to include as part of the buildings and grounds of the National Gallery of Art any buildings and other areas within the boundaries of any real estate or other property interests acquired by the National Gallery of Art.    Without objection, the first reading of the bill is dispensed with and the bill is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>412522</t>
   </si>
   <si>
-    <t>Juan Vargas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vargas. The only comment I would make is to thank the Capitol Police. I have had such great service here. I really appreciate the work that they do, and I hope that you take that back to them. Thank you.    The Chairman. Thank you.    I move the Committee favorably report this bill to the House. The question is on the motion.    All in favor, signify by saying aye.    Opposed, say nay.    In the opinion of the Chair, the ayes have it, the ayes have it. The motion is agreed to. Without objection, the motion to reconsider is laid upon the table.    I now call before the Committee our next agenda item, H.R. 5227, the Library of Congress Modernization Act of 2016.    Without objection, the first reading of the bill is dispensed with, and the bill is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
   </si>
   <si>
     <t>412280</t>
-  </si>
-  <si>
-    <t>Gregg Harper</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Harper. Yes. I just wanted to remind everyone that lawyers are people too.</t>
@@ -520,11 +505,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -546,11 +529,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -572,11 +553,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -596,13 +575,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -622,13 +599,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -650,11 +625,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -676,11 +649,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -702,11 +673,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -728,11 +697,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -752,13 +719,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -780,11 +745,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -806,11 +769,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -830,13 +791,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -858,11 +817,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -882,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21309.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21309.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Madam Chairman. Just to say thank you for having this hearing and moving these bills forward.    The Chairman. Any other Member wish to make an opening statement?    Okay. I will now call before the Committee our first agenda item, the Committee Resolution 114 instructing the House Chief Administrative Officer to submit a plan for the transfer of the House Safe Program to be managed by the House Sergeant at Arms Security Office.    Without objection, the first reading of the resolution is dispensed with, the resolution is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -64,12 +73,24 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Madam Chairman.    Thank you to Ranking Member Brady and this entire Committee.    As somebody who used to actually file the vouchers as a member of the congressional staff for one of our colleagues, these updates I think are overdue, and I think they are going to go a long way in ensuring that the House processes more closely resemble documentation standards in the private sector.    So thank you all for your assistance. I would like to especially thank Ms. Lofgren for helping us go through this process just a few short months ago.    I yield back.    The Chairman. I certainly want to thank both Mr. Davis and Ms. Lofgren for all of the work that they did on this. It was many, many hours, and I think the institution will be so much better for it.    I recognize the gentlelady.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Just to add that it is good to see the follow-up from the work that we did on the task force.    And I yield back.    The Chairman. Any other Member?    If not, I move the Committee adopt the Committee Resolution. The question is on the motion to adopt the resolution.    All Members in favor, signify by saying aye.    Opposed, say nay.    In the opinion of the Chair, the ayes have it, the ayes have it. The motion is agreed to. Without objection, the motion to reconsider is laid upon the table.    We now call before the Committee our next agenda item, which is H.R. 5160, a bill to amend Title 40, United States Code, to include as part of the buildings and grounds of the National Gallery of Art any buildings and other areas within the boundaries of any real estate or other property interests acquired by the National Gallery of Art.    Without objection, the first reading of the bill is dispensed with and the bill is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -88,6 +109,12 @@
     <t>412522</t>
   </si>
   <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vargas. The only comment I would make is to thank the Capitol Police. I have had such great service here. I really appreciate the work that they do, and I hope that you take that back to them. Thank you.    The Chairman. Thank you.    I move the Committee favorably report this bill to the House. The question is on the motion.    All in favor, signify by saying aye.    Opposed, say nay.    In the opinion of the Chair, the ayes have it, the ayes have it. The motion is agreed to. Without objection, the motion to reconsider is laid upon the table.    I now call before the Committee our next agenda item, H.R. 5227, the Library of Congress Modernization Act of 2016.    Without objection, the first reading of the bill is dispensed with, and the bill is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -98,6 +125,12 @@
   </si>
   <si>
     <t>412280</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Harper. Yes. I just wanted to remind everyone that lawyers are people too.</t>
@@ -455,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +496,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,365 +518,443 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
+      <c r="H16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
+      <c r="I16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21309.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21309.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brady</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>412536</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Davis</t>
@@ -488,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +505,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,440 +530,488 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
